--- a/data/interim/P2/P02_005.xlsx
+++ b/data/interim/P2/P02_005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\index-2020-3\data\interim\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FDE64A-25CF-43E7-9D2F-B2D7776C34CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F7D4D2-8381-4166-821E-CE3BB76B666C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
